--- a/Test Data/excelDataProviderLoginPage.xlsx
+++ b/Test Data/excelDataProviderLoginPage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\RestroSoftTest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A06FEA-9CFA-4219-B57F-E2F6ECC5B4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0B1AD3-EF38-41EC-8106-F8C4ACA1259C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCombination" sheetId="1" r:id="rId1"/>
-    <sheet name="NegativeTC" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminLogin" sheetId="4" r:id="rId2"/>
     <sheet name="ForgotPassword" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,17 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
-  <si>
-    <t>tester.adambrands@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>Admin@124</t>
   </si>
   <si>
@@ -87,27 +81,12 @@
     <t/>
   </si>
   <si>
-    <t>AdMiN@123</t>
-  </si>
-  <si>
     <t>UnRegisteredEmail</t>
   </si>
   <si>
     <t>BlankEmail</t>
   </si>
   <si>
-    <t>Login Successfull.</t>
-  </si>
-  <si>
-    <t>Invalid email address</t>
-  </si>
-  <si>
-    <t>Invalid password</t>
-  </si>
-  <si>
-    <t>NonVerifiedMail</t>
-  </si>
-  <si>
     <t>krunal@hashtaginfosystem.com</t>
   </si>
   <si>
@@ -126,29 +105,56 @@
     <t>r</t>
   </si>
   <si>
-    <t>ridham@hashtaginfosystem.com</t>
-  </si>
-  <si>
-    <t>OTP sent Successfully</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>Password does not match</t>
-  </si>
-  <si>
-    <t>Email id is not registered</t>
-  </si>
-  <si>
-    <t>Email id is not Registered</t>
+    <t>DeletedUser</t>
+  </si>
+  <si>
+    <t>Krunal@123</t>
+  </si>
+  <si>
+    <t>KruNal@123</t>
+  </si>
+  <si>
+    <t>bhavesh@hashtaginfosystem.com</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Password has been sent successfully</t>
+  </si>
+  <si>
+    <t>Email is not registered</t>
+  </si>
+  <si>
+    <t>Your account is no longer active</t>
+  </si>
+  <si>
+    <t>SubAdmin</t>
+  </si>
+  <si>
+    <t>jay@hashtaginfosystem.com</t>
+  </si>
+  <si>
+    <t>Jay@123</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Invalid Credential</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,21 +184,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Math"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -220,9 +215,27 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFF05252"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -284,24 +297,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -583,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
@@ -598,288 +610,259 @@
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="5" t="s">
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D44570CC-3073-4DF5-AEBD-C7312EA5EB18}"/>
-    <hyperlink ref="C4" r:id="rId2" display="Admin@123" xr:uid="{9BBBDEFC-ACAD-4593-A737-2759855AEF76}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{A190D9A5-D29C-4B2F-BEF0-3C4B28D5B393}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{F3D6D048-B352-4137-B652-09F8D4971353}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{CF3368FE-29C1-4FBA-ADC4-F7619240BAF8}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{78A0585B-D472-49F3-938D-0D3C30416182}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{8B1A840A-6894-4178-A06F-5606828619B5}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{D991DD21-3371-4AAC-956E-95FF18514E0F}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{2204E61F-7DB0-48A3-897A-8E8E4C016262}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{D1D9A5AE-4354-427B-BFCE-09A2989A8F3B}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{3167C6F5-AB24-4A7A-BEC3-6875FE7AC42A}"/>
-    <hyperlink ref="B9" r:id="rId12" xr:uid="{9DD0D087-DAD5-4D78-AF0A-FD97BDC4B27B}"/>
+    <hyperlink ref="C5" r:id="rId2" display="Admin@123" xr:uid="{9BBBDEFC-ACAD-4593-A737-2759855AEF76}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{F3D6D048-B352-4137-B652-09F8D4971353}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{CF3368FE-29C1-4FBA-ADC4-F7619240BAF8}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{78A0585B-D472-49F3-938D-0D3C30416182}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{8B1A840A-6894-4178-A06F-5606828619B5}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{D1D9A5AE-4354-427B-BFCE-09A2989A8F3B}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{3167C6F5-AB24-4A7A-BEC3-6875FE7AC42A}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{9DD0D087-DAD5-4D78-AF0A-FD97BDC4B27B}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{95FBCD21-1796-4D32-8F63-91D2CB539E32}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{0C019B26-2CBD-4BCE-A9BC-F4581E669705}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{A8F49542-9855-4479-9786-8757FE1B1EA6}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{E0A762CA-EF99-4516-A475-72349EB127E1}"/>
+    <hyperlink ref="B4" r:id="rId14" xr:uid="{2EACBBA5-DA31-4ED2-B15B-F5D87C1D2D86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBBC75-BAE8-40A1-BD25-2BDE8290E99D}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41817C0-99C9-4A44-90B0-D6AB14FC99F4}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="C4" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{75BEE8FC-1F67-4198-82BA-610287F79FD3}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{211EBF05-6288-48B6-8578-FEE93F206C0C}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{D379450E-C426-4850-85C8-BFC60D30B7B2}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{0433A0D8-A3B6-4A3A-B752-4C62196A800B}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{FD8EB18F-59E7-4F88-B4AF-67D683C52B29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -888,78 +871,78 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
